--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_255.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_255.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,313 +488,312 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F', 'F/7', 'D:min']]</t>
-        </is>
+          <t>isophonics_280</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5441176470588235</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(15.300272, 18.887755)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(8.84, 15.86)]</t>
+          <t>[('0:00:03.389127', '0:00:22.035759')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(2.7, 109.5)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.62, 107.38)]</t>
+          <t>[('0:00:12.820000', '0:00:52.640000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:13.420000', '0:00:53.020000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1053361053361053</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:7/A', 'A:min', 'D:min/A', 'A:min']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(12.394648, 21.12535)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(25.26, 36.1)]</t>
+          <t>[('0:00:06.260000', '0:00:17.160000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:59.260000', '0:01:01.360000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(41.3, 43.48)]</t>
+          <t>[('0:00:04.340000', '0:00:17.660000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:55.840000', '0:01:05.040000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(1.5, 4.8)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[('0:01:06.920000', '0:01:08.180000'), ('0:01:05.200000', '0:01:07.500000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:01.640000', '0:00:10.360000'), ('0:00:57.480000', '0:01:04.580000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(3.34, 6.82)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[('0:01:07.760000', '0:01:24.780000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(59.9, 69.84)]</t>
+          <t>[('0:00:37.995918', '0:00:52.299410')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+          <t>[('0:01:58.440000', '0:02:02.340000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -798,43 +802,48 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>0.2666666666666667</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(6.88, 12.96)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[('0:01:33', '0:01:43.280000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:49.440000', '0:02:03.140000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
@@ -843,43 +852,48 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58)]</t>
+          <t>[('0:00:36.600000', '0:00:39')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:37.540000', '0:00:42.720000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
@@ -888,317 +902,278 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.42, 5.02)]</t>
+          <t>[('0:00:17.900000', '0:00:20.700000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:10.200000', '0:00:18.840000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(88.86, 97.74)]</t>
+          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(101.44, 112.4)]</t>
+          <t>[('0:00:04.760000', '0:01:58.780000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:05.060000', '0:02:03.260000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.56, 25.4)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.22, 21.94)]</t>
+          <t>[('0:00:46.520000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7)]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[('0:00:14.760000', '0:01:42.460000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:15.900000', '0:01:46.380000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (66.22, 72.3)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9), (31.6, 33.8)]</t>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:15.260000', '0:00:45.460000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_46</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(24.76, 34.92)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(51.62, 63.9)]</t>
+          <t>[('0:00:10.360000', '0:01:59')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(2.58, 5.02), (0.22, 3.44)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(84.62, 91.74), (30.24, 38.5)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:08.440000', '0:02:12.720000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
